--- a/experiment/excel/chatgpt_data5.xlsx
+++ b/experiment/excel/chatgpt_data5.xlsx
@@ -484,52 +484,52 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
+          <t>申报价格</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>成交价格</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>申报价格</t>
-        </is>
-      </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>营业部代码</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>证券代码</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>计价单位</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>卖出保护限价</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>交易时段</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>证券账号</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>申报类型</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>买入保护限价</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>卖出保护限价</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>证券代码</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>证券账号</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>申报类型</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>计价单位</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>交易时段</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>营业部代码</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
@@ -1475,18 +1475,18 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>10.00元</t>
-        </is>
-      </c>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>10.00元</t>
+        </is>
+      </c>
       <c r="W16" t="inlineStr">
         <is>
           <t>成功</t>
@@ -1541,13 +1541,13 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>8.00元</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
@@ -1603,24 +1603,24 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
         <is>
           <t>10.50元</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>10.00元</t>
-        </is>
-      </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>10.00元</t>
+        </is>
+      </c>
       <c r="W18" t="inlineStr">
         <is>
           <t>不成功</t>
@@ -1672,20 +1672,20 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
         <is>
           <t>7.50元</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>8.00元</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
@@ -1747,13 +1747,13 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>连续竞价期间</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>连续竞价期间</t>
-        </is>
-      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
@@ -1812,13 +1812,13 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>非连续竞价期间</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>非连续竞价期间</t>
-        </is>
-      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
@@ -1877,13 +1877,13 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>连续竞价期间</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>连续竞价期间</t>
-        </is>
-      </c>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
@@ -1946,26 +1946,26 @@
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr">
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>600000</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
         <is>
           <t>123456</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
           <t>成功</t>
@@ -2023,30 +2023,30 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>600001</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
         <is>
           <t>654321</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>最优5档即时成交剩余撤销申报</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
           <t>成功</t>
@@ -2108,26 +2108,26 @@
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>110000</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
         <is>
           <t>123456</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
+      <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
           <t>不成功</t>
@@ -2638,14 +2638,14 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>每股价格</t>
+        </is>
+      </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>每股价格</t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr">
@@ -2703,14 +2703,14 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>每份基金价格</t>
+        </is>
+      </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>每份基金价格</t>
-        </is>
-      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
@@ -2768,14 +2768,14 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>每份权证价格</t>
+        </is>
+      </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>每份权证价格</t>
-        </is>
-      </c>
+      <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
@@ -2833,14 +2833,14 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>每份存托凭证价格</t>
+        </is>
+      </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>每份存托凭证价格</t>
-        </is>
-      </c>
+      <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
@@ -2894,12 +2894,12 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>10.01元人民币</t>
         </is>
       </c>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2959,12 +2959,12 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>1.001元人民币</t>
         </is>
       </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -3024,12 +3024,12 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>0.101美元</t>
         </is>
       </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -3089,12 +3089,12 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>10.001元人民币</t>
         </is>
       </c>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -3158,12 +3158,12 @@
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>调整后的价格变动单位</t>
         </is>
       </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -3227,12 +3227,12 @@
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>调整前的价格变动单位</t>
         </is>
       </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
